--- a/CRONOGRAMAfechas.xlsx
+++ b/CRONOGRAMAfechas.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B88F8B2-0E24-491D-8D74-4529A642E461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB66BBA-E4E1-4EEC-B304-324BFCE0008C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Actividades" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagrama de Gantt" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cronograma!$A$1:$F$102</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="29">
   <si>
     <t>Ítem</t>
   </si>
@@ -41,10 +44,13 @@
     <t>Fecha fin</t>
   </si>
   <si>
+    <t>Circuito para digitalizador</t>
+  </si>
+  <si>
     <t>Estación sensora de 6 componentes</t>
   </si>
   <si>
-    <t>Tarjeta para elongómetro</t>
+    <t>Elongómetro</t>
   </si>
   <si>
     <t>Tarjeta para electroválvula</t>
@@ -53,7 +59,16 @@
     <t>Colimador móvil</t>
   </si>
   <si>
-    <t>Análisis técnico y levantamiento de requerimientos</t>
+    <t>Colimador fijo</t>
+  </si>
+  <si>
+    <t>Circuito para termocuplas</t>
+  </si>
+  <si>
+    <t>Circuito para acelerógrafo</t>
+  </si>
+  <si>
+    <t>Análisis técnico y requerimientos</t>
   </si>
   <si>
     <t>Diseño esquemático</t>
@@ -65,106 +80,46 @@
     <t>Revisión técnica interna</t>
   </si>
   <si>
-    <t>Recepción y pruebas de hardware</t>
-  </si>
-  <si>
-    <t>Desarrollo de firmware (si aplica)</t>
-  </si>
-  <si>
-    <t>Integración con Raspberry Pi / pruebas de comunicación</t>
+    <t>Fabricación prototipo 1</t>
+  </si>
+  <si>
+    <t>Firmware e integración</t>
+  </si>
+  <si>
+    <t>Pruebas funcionales completas</t>
+  </si>
+  <si>
+    <t>Validación final</t>
   </si>
   <si>
     <t>Diseño de contenedor</t>
   </si>
   <si>
-    <t>Fabricación del contenedor</t>
-  </si>
-  <si>
-    <t>Ensamble y pruebas finales</t>
-  </si>
-  <si>
-    <t>Configuración y prueba de comunicación RS485 (ASCII)</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>2025-05-21</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>2025-05-31</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>2025-06-10</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>2025-06-11</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>2025-06-21</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>2025-07-08</t>
-  </si>
-  <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>2025-07-25</t>
-  </si>
-  <si>
-    <t>2025-07-30</t>
-  </si>
-  <si>
-    <t>2025-08-04</t>
-  </si>
-  <si>
-    <t>2025-08-09</t>
-  </si>
-  <si>
-    <t>2025-06-15</t>
-  </si>
-  <si>
-    <t>Fabricación</t>
+    <t>Fabricación de contenedor</t>
+  </si>
+  <si>
+    <t>Ensamble final</t>
+  </si>
+  <si>
+    <t>Planificación de producción masiva (si aplica)</t>
+  </si>
+  <si>
+    <t>Pruebas de ADC (solo si aplica)</t>
+  </si>
+  <si>
+    <t>Rediseño y mejora (versión 2 si aplica)</t>
+  </si>
+  <si>
+    <t>Fabricación versión 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,7 +177,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,65 +205,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2049" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405DA693-4620-F97B-94D3-CA8B22461422}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>623454</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>170842</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>42148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31F9723-2CFC-8FEA-FEF8-A948F9A77055}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C1E9A2-C6EA-CE75-16F4-A0A8EA95B60A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -325,7 +232,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14048509" cy="8635969"/>
+          <a:ext cx="45714285" cy="28571428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -624,19 +531,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -664,19 +569,19 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
+      <c r="E2" s="2">
+        <v>45762</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45764</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -684,19 +589,19 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
+      <c r="E3" s="2">
+        <v>45764</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45769</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -704,19 +609,19 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
+      <c r="E4" s="2">
+        <v>45769</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45774</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -724,19 +629,19 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
+      <c r="E5" s="2">
+        <v>45774</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45776</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -744,19 +649,19 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
+      <c r="E6" s="2">
+        <v>45776</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45791</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -764,19 +669,19 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45791</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45795</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -784,19 +689,19 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
+      <c r="E8" s="2">
+        <v>45795</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45800</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -804,19 +709,19 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
+      <c r="E9" s="2">
+        <v>45800</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45805</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -824,19 +729,19 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45805</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45809</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -844,19 +749,19 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45809</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45819</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -864,119 +769,119 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45819</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45823</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45823</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45827</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45827</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45834</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45834</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45837</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45837</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45840</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45841</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45843</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -984,159 +889,159 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45841</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45843</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45841</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45843</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45841</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45843</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45841</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45843</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45841</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45843</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45841</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45843</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>45817</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
+        <v>45843</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45848</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
-      <c r="E25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
+      <c r="E25" s="2">
+        <v>45843</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45848</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1144,87 +1049,87 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
+      <c r="E26" s="2">
+        <v>45843</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45848</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45843</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45848</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45843</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45848</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45843</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45848</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -1232,51 +1137,51 @@
       <c r="D30">
         <v>5</v>
       </c>
-      <c r="E30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" t="s">
-        <v>39</v>
+      <c r="E30" s="2">
+        <v>45843</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45848</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
-      <c r="E31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s">
-        <v>40</v>
+      <c r="E31" s="2">
+        <v>45848</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45853</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
-      <c r="E32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" t="s">
-        <v>41</v>
+      <c r="E32" s="2">
+        <v>45848</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45853</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1284,159 +1189,159 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
-      <c r="E33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" t="s">
-        <v>42</v>
+      <c r="E33" s="2">
+        <v>45848</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45853</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
-      <c r="E34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" t="s">
-        <v>43</v>
+      <c r="E34" s="2">
+        <v>45848</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45853</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45848</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45853</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
-      <c r="E36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" t="s">
-        <v>34</v>
+      <c r="E36" s="2">
+        <v>45848</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45853</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
-      <c r="E37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" t="s">
-        <v>35</v>
+      <c r="E37" s="2">
+        <v>45848</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45853</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" t="s">
-        <v>36</v>
+      <c r="E38" s="2">
+        <v>45853</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45855</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>15</v>
-      </c>
-      <c r="E39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45853</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45855</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45853</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45855</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1444,111 +1349,1258 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45853</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45855</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45853</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45855</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45853</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45855</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45853</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45855</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45855</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45855</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45855</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>64</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45855</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45855</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45855</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45855</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45870</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45870</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
         <v>9</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C54" t="s">
         <v>19</v>
       </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" t="s">
-        <v>43</v>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45870</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45870</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45870</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45870</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45870</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45875</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45875</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45875</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45875</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45875</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45875</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45875</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45880</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45880</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45880</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45880</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45880</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45880</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45880</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45884</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45884</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>32</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45884</v>
+      </c>
+      <c r="F75" s="2">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>64</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45884</v>
+      </c>
+      <c r="F76" s="2">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45884</v>
+      </c>
+      <c r="F77" s="2">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45884</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>68</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45884</v>
+      </c>
+      <c r="F79" s="2">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45888</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>32</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45888</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>64</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45888</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>65</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45888</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>67</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45888</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>68</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85">
+        <v>7</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45888</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>30</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45894</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>25</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45895</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45895</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>64</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45895</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>65</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45895</v>
+      </c>
+      <c r="F90" s="2">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>67</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45895</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>68</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45895</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45898</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45898</v>
+      </c>
+      <c r="F94" s="2">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>32</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45898</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>64</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45898</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>65</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45898</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>67</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45898</v>
+      </c>
+      <c r="F98" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>68</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45898</v>
+      </c>
+      <c r="F99" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>30</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>7</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45902</v>
+      </c>
+      <c r="F100" s="2">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>30</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45909</v>
+      </c>
+      <c r="F101" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>30</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45912</v>
+      </c>
+      <c r="F102" s="2">
+        <v>45915</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F102" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F102">
+      <sortCondition ref="E1:E102"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDBDDC7-3C4C-4871-8F55-0BA3ED85C047}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BB7E14-AB39-4109-91B1-E4CCC5A8C2E0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
